--- a/metrics_output.xlsx
+++ b/metrics_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,27 +602,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15</v>
+        <v>619.1799999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>11.79</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="E7" t="n">
-        <v>1.09</v>
+        <v>156.06</v>
       </c>
       <c r="F7" t="n">
-        <v>13.87</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>4.11</v>
+        <v>0.01</v>
       </c>
       <c r="H7" t="n">
-        <v>18.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -666,23 +666,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.81</v>
+        <v>1.29</v>
       </c>
       <c r="E8" t="n">
-        <v>0.52</v>
+        <v>1.15</v>
       </c>
       <c r="F8" t="n">
-        <v>32.27</v>
+        <v>11.79</v>
       </c>
       <c r="G8" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="H8" t="n">
-        <v>37.47</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="9">
@@ -696,143 +696,143 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>fin+</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="E9" t="n">
-        <v>0.41</v>
+        <v>1.09</v>
       </c>
       <c r="F9" t="n">
-        <v>42.88</v>
+        <v>13.87</v>
       </c>
       <c r="G9" t="n">
-        <v>4.64</v>
+        <v>4.11</v>
       </c>
       <c r="H9" t="n">
-        <v>47.56</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>odess-</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.1</v>
+        <v>1.81</v>
       </c>
       <c r="E10" t="n">
-        <v>3.26</v>
+        <v>0.52</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>32.27</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>5.16</v>
       </c>
       <c r="H10" t="n">
-        <v>1.36</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>odess1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.16</v>
+        <v>2.04</v>
       </c>
       <c r="E11" t="n">
-        <v>2.35</v>
+        <v>0.41</v>
       </c>
       <c r="F11" t="n">
-        <v>0.92</v>
+        <v>42.88</v>
       </c>
       <c r="G11" t="n">
-        <v>0.96</v>
+        <v>4.64</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>47.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.61</v>
+        <v>745.17</v>
       </c>
       <c r="F12" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.76</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="E13" t="n">
-        <v>1.32</v>
+        <v>221.83</v>
       </c>
       <c r="F13" t="n">
-        <v>2.33</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>1.01</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="E14" t="n">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="F14" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="E15" t="n">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="F15" t="n">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="G15" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="H15" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="16">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -910,19 +910,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="E16" t="n">
-        <v>1.08</v>
+        <v>1.61</v>
       </c>
       <c r="F16" t="n">
-        <v>2.95</v>
+        <v>1.59</v>
       </c>
       <c r="G16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H16" t="n">
-        <v>4.13</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="17">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -940,25 +940,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="E17" t="n">
-        <v>0.95</v>
+        <v>1.32</v>
       </c>
       <c r="F17" t="n">
-        <v>3.66</v>
+        <v>2.33</v>
       </c>
       <c r="G17" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -966,29 +966,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.2</v>
+        <v>1.06</v>
       </c>
       <c r="E18" t="n">
-        <v>1.31</v>
+        <v>446.4</v>
       </c>
       <c r="F18" t="n">
-        <v>22.79</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.57</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -996,89 +996,89 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.24</v>
+        <v>1.08</v>
       </c>
       <c r="E19" t="n">
-        <v>1.21</v>
+        <v>244.03</v>
       </c>
       <c r="F19" t="n">
-        <v>25.93</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.78</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.18</v>
+        <v>1.07</v>
       </c>
       <c r="E20" t="n">
-        <v>1.45</v>
+        <v>3.14</v>
       </c>
       <c r="F20" t="n">
-        <v>20.5</v>
+        <v>0.21</v>
       </c>
       <c r="G20" t="n">
-        <v>4.33</v>
+        <v>1.19</v>
       </c>
       <c r="H20" t="n">
-        <v>24.91</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>fin+</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.18</v>
+        <v>1.12</v>
       </c>
       <c r="E21" t="n">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
       <c r="F21" t="n">
-        <v>20.49</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.93</v>
+        <v>0.97</v>
       </c>
       <c r="H21" t="n">
-        <v>24.49</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1086,29 +1086,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>odess-</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.98</v>
+        <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.42</v>
+        <v>1.08</v>
       </c>
       <c r="F22" t="n">
-        <v>77.64</v>
+        <v>2.95</v>
       </c>
       <c r="G22" t="n">
-        <v>7.43</v>
+        <v>1.16</v>
       </c>
       <c r="H22" t="n">
-        <v>85.14</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1116,29 +1116,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>odess1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.01</v>
+        <v>1.36</v>
       </c>
       <c r="E23" t="n">
-        <v>0.39</v>
+        <v>0.95</v>
       </c>
       <c r="F23" t="n">
-        <v>85.67</v>
+        <v>3.66</v>
       </c>
       <c r="G23" t="n">
-        <v>6.03</v>
+        <v>1.03</v>
       </c>
       <c r="H23" t="n">
-        <v>91.77</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1146,29 +1146,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.75</v>
+        <v>1.06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.51</v>
+        <v>524.86</v>
       </c>
       <c r="F24" t="n">
-        <v>64.22</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.77</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>71.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1176,29 +1176,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.77</v>
+        <v>1.07</v>
       </c>
       <c r="E25" t="n">
-        <v>0.52</v>
+        <v>313.58</v>
       </c>
       <c r="F25" t="n">
-        <v>62.87</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.99</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>68.93000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="E26" t="n">
-        <v>2.91</v>
+        <v>1.31</v>
       </c>
       <c r="F26" t="n">
-        <v>8.9</v>
+        <v>22.79</v>
       </c>
       <c r="G26" t="n">
-        <v>3.41</v>
+        <v>4.7</v>
       </c>
       <c r="H26" t="n">
-        <v>12.38</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1240,25 +1240,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.81</v>
+        <v>3.24</v>
       </c>
       <c r="E27" t="n">
-        <v>2.63</v>
+        <v>1.21</v>
       </c>
       <c r="F27" t="n">
-        <v>10.9</v>
+        <v>25.93</v>
       </c>
       <c r="G27" t="n">
-        <v>2.73</v>
+        <v>3.78</v>
       </c>
       <c r="H27" t="n">
-        <v>13.69</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1270,25 +1270,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="E28" t="n">
-        <v>3.21</v>
+        <v>1.45</v>
       </c>
       <c r="F28" t="n">
-        <v>7.87</v>
+        <v>20.5</v>
       </c>
       <c r="G28" t="n">
-        <v>3.26</v>
+        <v>4.33</v>
       </c>
       <c r="H28" t="n">
-        <v>11.2</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1300,85 +1300,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.59</v>
+        <v>3.18</v>
       </c>
       <c r="E29" t="n">
-        <v>3.09</v>
+        <v>1.47</v>
       </c>
       <c r="F29" t="n">
-        <v>8.6</v>
+        <v>20.49</v>
       </c>
       <c r="G29" t="n">
-        <v>2.96</v>
+        <v>3.93</v>
       </c>
       <c r="H29" t="n">
-        <v>11.64</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.81</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0.82</v>
+        <v>585.05</v>
       </c>
       <c r="F30" t="n">
-        <v>38.98</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>44.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.11</v>
+        <v>3.04</v>
       </c>
       <c r="E31" t="n">
-        <v>0.77</v>
+        <v>37.21</v>
       </c>
       <c r="F31" t="n">
-        <v>42.72</v>
+        <v>0.89</v>
       </c>
       <c r="G31" t="n">
-        <v>4.02</v>
+        <v>0.01</v>
       </c>
       <c r="H31" t="n">
-        <v>46.8</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1386,29 +1386,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="E32" t="n">
-        <v>0.95</v>
+        <v>0.42</v>
       </c>
       <c r="F32" t="n">
-        <v>32.82</v>
+        <v>77.64</v>
       </c>
       <c r="G32" t="n">
-        <v>4.86</v>
+        <v>7.43</v>
       </c>
       <c r="H32" t="n">
-        <v>37.74</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1416,153 +1416,153 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>fin+</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.36</v>
+        <v>3.01</v>
       </c>
       <c r="E33" t="n">
-        <v>0.93</v>
+        <v>0.39</v>
       </c>
       <c r="F33" t="n">
-        <v>34</v>
+        <v>85.67</v>
       </c>
       <c r="G33" t="n">
-        <v>4.54</v>
+        <v>6.03</v>
       </c>
       <c r="H33" t="n">
-        <v>38.61</v>
+        <v>91.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>odess-</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="E34" t="n">
-        <v>1.35</v>
+        <v>0.51</v>
       </c>
       <c r="F34" t="n">
-        <v>724.9</v>
+        <v>64.3</v>
       </c>
       <c r="G34" t="n">
-        <v>123.93</v>
+        <v>6.67</v>
       </c>
       <c r="H34" t="n">
-        <v>851.23</v>
+        <v>71.04000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>odess1</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.24</v>
+        <v>2.77</v>
       </c>
       <c r="E35" t="n">
         <v>0.52</v>
       </c>
       <c r="F35" t="n">
-        <v>2074.07</v>
+        <v>62.87</v>
       </c>
       <c r="G35" t="n">
-        <v>142.19</v>
+        <v>5.99</v>
       </c>
       <c r="H35" t="n">
-        <v>2219.02</v>
+        <v>68.93000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.18</v>
+        <v>2.02</v>
       </c>
       <c r="E36" t="n">
-        <v>1.45</v>
+        <v>824.28</v>
       </c>
       <c r="F36" t="n">
-        <v>650.86</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>138.5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>791.8</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.18</v>
+        <v>2.35</v>
       </c>
       <c r="E37" t="n">
-        <v>1.46</v>
+        <v>33.19</v>
       </c>
       <c r="F37" t="n">
-        <v>660.14</v>
+        <v>1.02</v>
       </c>
       <c r="G37" t="n">
-        <v>124.21</v>
+        <v>0.01</v>
       </c>
       <c r="H37" t="n">
-        <v>786.8099999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1570,29 +1570,29 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.93</v>
+        <v>3.65</v>
       </c>
       <c r="E38" t="n">
-        <v>0.43</v>
+        <v>2.91</v>
       </c>
       <c r="F38" t="n">
-        <v>2501.96</v>
+        <v>8.9</v>
       </c>
       <c r="G38" t="n">
-        <v>200.11</v>
+        <v>3.41</v>
       </c>
       <c r="H38" t="n">
-        <v>2704.36</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1600,29 +1600,29 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.99</v>
+        <v>3.81</v>
       </c>
       <c r="E39" t="n">
-        <v>0.39</v>
+        <v>2.63</v>
       </c>
       <c r="F39" t="n">
-        <v>2760.78</v>
+        <v>10.9</v>
       </c>
       <c r="G39" t="n">
-        <v>179.4</v>
+        <v>2.73</v>
       </c>
       <c r="H39" t="n">
-        <v>2942.41</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1630,29 +1630,29 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.75</v>
+        <v>3.54</v>
       </c>
       <c r="E40" t="n">
-        <v>0.51</v>
+        <v>3.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2023.24</v>
+        <v>7.91</v>
       </c>
       <c r="G40" t="n">
-        <v>216.29</v>
+        <v>3.26</v>
       </c>
       <c r="H40" t="n">
-        <v>2241.72</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1660,25 +1660,25 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.75</v>
+        <v>3.59</v>
       </c>
       <c r="E41" t="n">
-        <v>0.51</v>
+        <v>3.12</v>
       </c>
       <c r="F41" t="n">
-        <v>2047.4</v>
+        <v>8.57</v>
       </c>
       <c r="G41" t="n">
-        <v>193.25</v>
+        <v>2.91</v>
       </c>
       <c r="H41" t="n">
-        <v>2242.86</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1686,29 +1686,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>3.11</v>
+        <v>591.65</v>
       </c>
       <c r="F42" t="n">
-        <v>275.95</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>370.96</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1716,89 +1716,89 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>burst</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5.16</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>1.5</v>
+        <v>75.23</v>
       </c>
       <c r="F43" t="n">
-        <v>692.9299999999999</v>
+        <v>0.42</v>
       </c>
       <c r="G43" t="n">
-        <v>74.14</v>
+        <v>0.01</v>
       </c>
       <c r="H43" t="n">
-        <v>769.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3.54</v>
+        <v>3.81</v>
       </c>
       <c r="E44" t="n">
-        <v>3.14</v>
+        <v>0.82</v>
       </c>
       <c r="F44" t="n">
-        <v>257.31</v>
+        <v>38.98</v>
       </c>
       <c r="G44" t="n">
-        <v>107.19</v>
+        <v>5.12</v>
       </c>
       <c r="H44" t="n">
-        <v>366.82</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>odess1</t>
+          <t>fin+</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.55</v>
+        <v>4.11</v>
       </c>
       <c r="E45" t="n">
-        <v>3.22</v>
+        <v>0.77</v>
       </c>
       <c r="F45" t="n">
-        <v>259.25</v>
+        <v>42.72</v>
       </c>
       <c r="G45" t="n">
-        <v>96.22</v>
+        <v>4.02</v>
       </c>
       <c r="H45" t="n">
-        <v>357.79</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1806,29 +1806,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>odess-</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3.87</v>
+        <v>3.29</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F46" t="n">
-        <v>1304.57</v>
+        <v>32.62</v>
       </c>
       <c r="G46" t="n">
-        <v>137.4</v>
+        <v>4.84</v>
       </c>
       <c r="H46" t="n">
-        <v>1444</v>
+        <v>37.52</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1836,29 +1836,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fin+</t>
+          <t>odess1</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.12</v>
+        <v>3.36</v>
       </c>
       <c r="E47" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="F47" t="n">
-        <v>1400.76</v>
+        <v>33.97</v>
       </c>
       <c r="G47" t="n">
-        <v>119.84</v>
+        <v>4.59</v>
       </c>
       <c r="H47" t="n">
-        <v>1522.66</v>
+        <v>38.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1866,53 +1866,773 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>odess-</t>
+          <t>dedup</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.31</v>
+        <v>2.01</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9399999999999999</v>
+        <v>828.65</v>
       </c>
       <c r="F48" t="n">
-        <v>1068.57</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>156.66</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1227.27</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>sim_base1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F50" t="n">
+        <v>724.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>123.93</v>
+      </c>
+      <c r="H50" t="n">
+        <v>851.23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2074.07</v>
+      </c>
+      <c r="G51" t="n">
+        <v>142.19</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2219.02</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F52" t="n">
+        <v>650.86</v>
+      </c>
+      <c r="G52" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>791.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F53" t="n">
+        <v>660.14</v>
+      </c>
+      <c r="G53" t="n">
+        <v>124.21</v>
+      </c>
+      <c r="H53" t="n">
+        <v>786.8099999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>609.0700000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E55" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H55" t="n">
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2501.96</v>
+      </c>
+      <c r="G56" t="n">
+        <v>200.11</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2704.36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2760.78</v>
+      </c>
+      <c r="G57" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2942.41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2023.24</v>
+      </c>
+      <c r="G58" t="n">
+        <v>216.29</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2241.72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2047.4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2242.86</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>831.24</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E61" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H61" t="n">
+        <v>35.84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>sim_large_base1</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>8</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>275.95</v>
+      </c>
+      <c r="G62" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="H62" t="n">
+        <v>370.96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>692.9299999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="H63" t="n">
+        <v>769.38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F64" t="n">
+        <v>257.31</v>
+      </c>
+      <c r="G64" t="n">
+        <v>107.19</v>
+      </c>
+      <c r="H64" t="n">
+        <v>366.82</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>odess1</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D65" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F65" t="n">
+        <v>259.25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>96.22</v>
+      </c>
+      <c r="H65" t="n">
+        <v>357.79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>602.15</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="F67" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1304.57</v>
+      </c>
+      <c r="G68" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1400.76</v>
+      </c>
+      <c r="G69" t="n">
+        <v>119.84</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1522.66</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>3.31</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E70" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1068.57</v>
+      </c>
+      <c r="G70" t="n">
+        <v>156.66</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1227.27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.95</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F71" t="n">
         <v>1066</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G71" t="n">
         <v>145.21</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H71" t="n">
         <v>1213.17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>785.55</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E73" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="F73" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H73" t="n">
+        <v>27.49</v>
       </c>
     </row>
   </sheetData>

--- a/metrics_output.xlsx
+++ b/metrics_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,11 +838,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -850,29 +850,29 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="E14" t="n">
-        <v>3.26</v>
+        <v>1.59</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12</v>
+        <v>7.64</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>4.69</v>
       </c>
       <c r="H14" t="n">
-        <v>1.36</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -880,29 +880,29 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="E15" t="n">
-        <v>2.35</v>
+        <v>0.41</v>
       </c>
       <c r="F15" t="n">
-        <v>0.92</v>
+        <v>43.38</v>
       </c>
       <c r="G15" t="n">
-        <v>0.96</v>
+        <v>4.09</v>
       </c>
       <c r="H15" t="n">
-        <v>1.89</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -910,29 +910,29 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="E16" t="n">
-        <v>1.61</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1.59</v>
+        <v>74.58</v>
       </c>
       <c r="G16" t="n">
-        <v>1.15</v>
+        <v>5.28</v>
       </c>
       <c r="H16" t="n">
-        <v>2.76</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -940,29 +940,29 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.37</v>
+        <v>2.09</v>
       </c>
       <c r="E17" t="n">
-        <v>1.32</v>
+        <v>0.22</v>
       </c>
       <c r="F17" t="n">
-        <v>2.33</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>89.94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="E18" t="n">
-        <v>446.4</v>
+        <v>827.21</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -982,17 +982,17 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>webhttrack</t>
+          <t>webh</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="E19" t="n">
-        <v>244.03</v>
+        <v>295.05</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1030,19 +1030,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="E20" t="n">
-        <v>3.14</v>
+        <v>3.26</v>
       </c>
       <c r="F20" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="G20" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="H20" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="21">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1060,19 +1060,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="E21" t="n">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="F21" t="n">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="G21" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="H21" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="22">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1090,19 +1090,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="E22" t="n">
-        <v>1.08</v>
+        <v>1.61</v>
       </c>
       <c r="F22" t="n">
-        <v>2.95</v>
+        <v>1.59</v>
       </c>
       <c r="G22" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H22" t="n">
-        <v>4.13</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="23">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1120,19 +1120,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="E23" t="n">
-        <v>0.95</v>
+        <v>1.32</v>
       </c>
       <c r="F23" t="n">
-        <v>3.66</v>
+        <v>2.33</v>
       </c>
       <c r="G23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="24">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>1.06</v>
       </c>
       <c r="E24" t="n">
-        <v>524.86</v>
+        <v>446.4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="E25" t="n">
-        <v>313.58</v>
+        <v>244.03</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1192,17 +1192,17 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1210,29 +1210,29 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.2</v>
+        <v>1.07</v>
       </c>
       <c r="E26" t="n">
-        <v>1.31</v>
+        <v>3.14</v>
       </c>
       <c r="F26" t="n">
-        <v>22.79</v>
+        <v>0.21</v>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>1.19</v>
       </c>
       <c r="H26" t="n">
-        <v>27.57</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1240,29 +1240,29 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.24</v>
+        <v>1.12</v>
       </c>
       <c r="E27" t="n">
-        <v>1.21</v>
+        <v>2.14</v>
       </c>
       <c r="F27" t="n">
-        <v>25.93</v>
+        <v>1.1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.78</v>
+        <v>0.97</v>
       </c>
       <c r="H27" t="n">
-        <v>29.78</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1270,29 +1270,29 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3.18</v>
+        <v>1.3</v>
       </c>
       <c r="E28" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F28" t="n">
-        <v>20.5</v>
+        <v>2.95</v>
       </c>
       <c r="G28" t="n">
-        <v>4.33</v>
+        <v>1.16</v>
       </c>
       <c r="H28" t="n">
-        <v>24.91</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1300,29 +1300,29 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.18</v>
+        <v>1.36</v>
       </c>
       <c r="E29" t="n">
-        <v>1.47</v>
+        <v>0.95</v>
       </c>
       <c r="F29" t="n">
-        <v>20.49</v>
+        <v>3.66</v>
       </c>
       <c r="G29" t="n">
-        <v>3.93</v>
+        <v>1.03</v>
       </c>
       <c r="H29" t="n">
-        <v>24.49</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1.06</v>
       </c>
       <c r="E30" t="n">
-        <v>585.05</v>
+        <v>524.86</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1342,17 +1342,17 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1360,29 +1360,29 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.04</v>
+        <v>1.07</v>
       </c>
       <c r="E31" t="n">
-        <v>37.21</v>
+        <v>313.58</v>
       </c>
       <c r="F31" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.01</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1390,29 +1390,29 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.98</v>
+        <v>1.06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.42</v>
+        <v>4.13</v>
       </c>
       <c r="F32" t="n">
-        <v>77.64</v>
+        <v>0.01</v>
       </c>
       <c r="G32" t="n">
-        <v>7.43</v>
+        <v>1.05</v>
       </c>
       <c r="H32" t="n">
-        <v>85.14</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1420,29 +1420,29 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.01</v>
+        <v>1.13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.39</v>
+        <v>0.9</v>
       </c>
       <c r="F33" t="n">
-        <v>85.67</v>
+        <v>4.03</v>
       </c>
       <c r="G33" t="n">
-        <v>6.03</v>
+        <v>0.91</v>
       </c>
       <c r="H33" t="n">
-        <v>91.77</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1450,29 +1450,29 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="E34" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="F34" t="n">
-        <v>64.3</v>
+        <v>4.43</v>
       </c>
       <c r="G34" t="n">
-        <v>6.67</v>
+        <v>1.14</v>
       </c>
       <c r="H34" t="n">
-        <v>71.04000000000001</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1480,29 +1480,29 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.77</v>
+        <v>1.28</v>
       </c>
       <c r="E35" t="n">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="F35" t="n">
-        <v>62.87</v>
+        <v>5.05</v>
       </c>
       <c r="G35" t="n">
-        <v>5.99</v>
+        <v>1.04</v>
       </c>
       <c r="H35" t="n">
-        <v>68.93000000000001</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
       <c r="E36" t="n">
-        <v>824.28</v>
+        <v>572.35</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1522,17 +1522,17 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>webhttrack</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1540,25 +1540,25 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.35</v>
+        <v>1.07</v>
       </c>
       <c r="E37" t="n">
-        <v>33.19</v>
+        <v>341.48</v>
       </c>
       <c r="F37" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.01</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="E38" t="n">
-        <v>2.91</v>
+        <v>1.31</v>
       </c>
       <c r="F38" t="n">
-        <v>8.9</v>
+        <v>22.79</v>
       </c>
       <c r="G38" t="n">
-        <v>3.41</v>
+        <v>4.7</v>
       </c>
       <c r="H38" t="n">
-        <v>12.38</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1600,25 +1600,25 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3.81</v>
+        <v>3.24</v>
       </c>
       <c r="E39" t="n">
-        <v>2.63</v>
+        <v>1.21</v>
       </c>
       <c r="F39" t="n">
-        <v>10.9</v>
+        <v>25.93</v>
       </c>
       <c r="G39" t="n">
-        <v>2.73</v>
+        <v>3.78</v>
       </c>
       <c r="H39" t="n">
-        <v>13.69</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1630,25 +1630,25 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="E40" t="n">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="F40" t="n">
-        <v>7.91</v>
+        <v>20.5</v>
       </c>
       <c r="G40" t="n">
-        <v>3.26</v>
+        <v>4.33</v>
       </c>
       <c r="H40" t="n">
-        <v>11.23</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1660,25 +1660,25 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.59</v>
+        <v>3.18</v>
       </c>
       <c r="E41" t="n">
-        <v>3.12</v>
+        <v>1.47</v>
       </c>
       <c r="F41" t="n">
-        <v>8.57</v>
+        <v>20.49</v>
       </c>
       <c r="G41" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="H41" t="n">
-        <v>11.55</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>591.65</v>
+        <v>585.05</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1720,25 +1720,25 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>3.04</v>
       </c>
       <c r="E43" t="n">
-        <v>75.23</v>
+        <v>37.21</v>
       </c>
       <c r="F43" t="n">
-        <v>0.42</v>
+        <v>0.89</v>
       </c>
       <c r="G43" t="n">
         <v>0.01</v>
       </c>
       <c r="H43" t="n">
-        <v>0.48</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1750,25 +1750,25 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3.81</v>
+        <v>2.98</v>
       </c>
       <c r="E44" t="n">
-        <v>0.82</v>
+        <v>0.42</v>
       </c>
       <c r="F44" t="n">
-        <v>38.98</v>
+        <v>77.64</v>
       </c>
       <c r="G44" t="n">
-        <v>5.12</v>
+        <v>7.43</v>
       </c>
       <c r="H44" t="n">
-        <v>44.16</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1780,25 +1780,25 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.11</v>
+        <v>3.01</v>
       </c>
       <c r="E45" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="F45" t="n">
-        <v>42.72</v>
+        <v>85.67</v>
       </c>
       <c r="G45" t="n">
-        <v>4.02</v>
+        <v>6.03</v>
       </c>
       <c r="H45" t="n">
-        <v>46.8</v>
+        <v>91.77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1810,25 +1810,25 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3.29</v>
+        <v>2.75</v>
       </c>
       <c r="E46" t="n">
-        <v>0.96</v>
+        <v>0.51</v>
       </c>
       <c r="F46" t="n">
-        <v>32.62</v>
+        <v>64.3</v>
       </c>
       <c r="G46" t="n">
-        <v>4.84</v>
+        <v>6.67</v>
       </c>
       <c r="H46" t="n">
-        <v>37.52</v>
+        <v>71.04000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1840,25 +1840,25 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3.36</v>
+        <v>2.77</v>
       </c>
       <c r="E47" t="n">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="F47" t="n">
-        <v>33.97</v>
+        <v>62.87</v>
       </c>
       <c r="G47" t="n">
-        <v>4.59</v>
+        <v>5.99</v>
       </c>
       <c r="H47" t="n">
-        <v>38.62</v>
+        <v>68.93000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="E48" t="n">
-        <v>828.65</v>
+        <v>824.28</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sim_base1</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1900,29 +1900,29 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5.3</v>
+        <v>2.35</v>
       </c>
       <c r="E49" t="n">
-        <v>42.66</v>
+        <v>33.19</v>
       </c>
       <c r="F49" t="n">
-        <v>0.79</v>
+        <v>1.02</v>
       </c>
       <c r="G49" t="n">
         <v>0.01</v>
       </c>
       <c r="H49" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1930,29 +1930,29 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3.21</v>
+        <v>2.7</v>
       </c>
       <c r="E50" t="n">
-        <v>1.35</v>
+        <v>0.23</v>
       </c>
       <c r="F50" t="n">
-        <v>724.9</v>
+        <v>149.53</v>
       </c>
       <c r="G50" t="n">
-        <v>123.93</v>
+        <v>8.31</v>
       </c>
       <c r="H50" t="n">
-        <v>851.23</v>
+        <v>157.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1960,29 +1960,29 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3.24</v>
+        <v>2.84</v>
       </c>
       <c r="E51" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="F51" t="n">
-        <v>2074.07</v>
+        <v>168.21</v>
       </c>
       <c r="G51" t="n">
-        <v>142.19</v>
+        <v>7.52</v>
       </c>
       <c r="H51" t="n">
-        <v>2219.02</v>
+        <v>175.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1990,29 +1990,29 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3.18</v>
+        <v>2.49</v>
       </c>
       <c r="E52" t="n">
-        <v>1.45</v>
+        <v>0.26</v>
       </c>
       <c r="F52" t="n">
-        <v>650.86</v>
+        <v>130.02</v>
       </c>
       <c r="G52" t="n">
-        <v>138.5</v>
+        <v>8.48</v>
       </c>
       <c r="H52" t="n">
-        <v>791.8</v>
+        <v>138.56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2020,29 +2020,29 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3.18</v>
+        <v>2.54</v>
       </c>
       <c r="E53" t="n">
-        <v>1.46</v>
+        <v>0.25</v>
       </c>
       <c r="F53" t="n">
-        <v>660.14</v>
+        <v>135.34</v>
       </c>
       <c r="G53" t="n">
-        <v>124.21</v>
+        <v>7.69</v>
       </c>
       <c r="H53" t="n">
-        <v>786.8099999999999</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>1.39</v>
       </c>
       <c r="E54" t="n">
-        <v>609.0700000000001</v>
+        <v>915.73</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2062,17 +2062,17 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.89</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2080,29 +2080,29 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3.03</v>
+        <v>1.87</v>
       </c>
       <c r="E55" t="n">
-        <v>36.4</v>
+        <v>34.99</v>
       </c>
       <c r="F55" t="n">
-        <v>29.25</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="H55" t="n">
-        <v>31.65</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2110,29 +2110,29 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2.93</v>
+        <v>3.65</v>
       </c>
       <c r="E56" t="n">
-        <v>0.43</v>
+        <v>2.91</v>
       </c>
       <c r="F56" t="n">
-        <v>2501.96</v>
+        <v>8.9</v>
       </c>
       <c r="G56" t="n">
-        <v>200.11</v>
+        <v>3.41</v>
       </c>
       <c r="H56" t="n">
-        <v>2704.36</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2140,29 +2140,29 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2.99</v>
+        <v>3.81</v>
       </c>
       <c r="E57" t="n">
-        <v>0.39</v>
+        <v>2.63</v>
       </c>
       <c r="F57" t="n">
-        <v>2760.78</v>
+        <v>10.9</v>
       </c>
       <c r="G57" t="n">
-        <v>179.4</v>
+        <v>2.73</v>
       </c>
       <c r="H57" t="n">
-        <v>2942.41</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2170,29 +2170,29 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.75</v>
+        <v>3.54</v>
       </c>
       <c r="E58" t="n">
-        <v>0.51</v>
+        <v>3.2</v>
       </c>
       <c r="F58" t="n">
-        <v>2023.24</v>
+        <v>7.91</v>
       </c>
       <c r="G58" t="n">
-        <v>216.29</v>
+        <v>3.26</v>
       </c>
       <c r="H58" t="n">
-        <v>2241.72</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2200,29 +2200,29 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.75</v>
+        <v>3.59</v>
       </c>
       <c r="E59" t="n">
-        <v>0.51</v>
+        <v>3.12</v>
       </c>
       <c r="F59" t="n">
-        <v>2047.4</v>
+        <v>8.57</v>
       </c>
       <c r="G59" t="n">
-        <v>193.25</v>
+        <v>2.91</v>
       </c>
       <c r="H59" t="n">
-        <v>2242.86</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>831.24</v>
+        <v>591.65</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2242,17 +2242,17 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.39</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sim_large</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2260,29 +2260,29 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>32.14</v>
+        <v>75.23</v>
       </c>
       <c r="F61" t="n">
-        <v>33.76</v>
+        <v>0.42</v>
       </c>
       <c r="G61" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="H61" t="n">
-        <v>35.84</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2290,29 +2290,29 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3.62</v>
+        <v>3.81</v>
       </c>
       <c r="E62" t="n">
-        <v>3.11</v>
+        <v>0.82</v>
       </c>
       <c r="F62" t="n">
-        <v>275.95</v>
+        <v>38.98</v>
       </c>
       <c r="G62" t="n">
-        <v>92.7</v>
+        <v>5.12</v>
       </c>
       <c r="H62" t="n">
-        <v>370.96</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2320,29 +2320,29 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.16</v>
+        <v>4.11</v>
       </c>
       <c r="E63" t="n">
-        <v>1.5</v>
+        <v>0.77</v>
       </c>
       <c r="F63" t="n">
-        <v>692.9299999999999</v>
+        <v>42.72</v>
       </c>
       <c r="G63" t="n">
-        <v>74.14</v>
+        <v>4.02</v>
       </c>
       <c r="H63" t="n">
-        <v>769.38</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2350,29 +2350,29 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3.54</v>
+        <v>3.29</v>
       </c>
       <c r="E64" t="n">
-        <v>3.14</v>
+        <v>0.96</v>
       </c>
       <c r="F64" t="n">
-        <v>257.31</v>
+        <v>32.62</v>
       </c>
       <c r="G64" t="n">
-        <v>107.19</v>
+        <v>4.84</v>
       </c>
       <c r="H64" t="n">
-        <v>366.82</v>
+        <v>37.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2380,29 +2380,29 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3.55</v>
+        <v>3.36</v>
       </c>
       <c r="E65" t="n">
-        <v>3.22</v>
+        <v>0.93</v>
       </c>
       <c r="F65" t="n">
-        <v>259.25</v>
+        <v>33.97</v>
       </c>
       <c r="G65" t="n">
-        <v>96.22</v>
+        <v>4.59</v>
       </c>
       <c r="H65" t="n">
-        <v>357.79</v>
+        <v>38.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>2.01</v>
       </c>
       <c r="E66" t="n">
-        <v>602.15</v>
+        <v>828.65</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2422,17 +2422,17 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.91</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2440,29 +2440,29 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="E67" t="n">
-        <v>73.34</v>
+        <v>42.66</v>
       </c>
       <c r="F67" t="n">
-        <v>13.56</v>
+        <v>0.79</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="H67" t="n">
-        <v>15.71</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2473,26 +2473,26 @@
         <v>3.87</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="F68" t="n">
-        <v>1304.57</v>
+        <v>102.42</v>
       </c>
       <c r="G68" t="n">
-        <v>137.4</v>
+        <v>6.63</v>
       </c>
       <c r="H68" t="n">
-        <v>1444</v>
+        <v>109.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2500,29 +2500,29 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="E69" t="n">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="F69" t="n">
-        <v>1400.76</v>
+        <v>106.37</v>
       </c>
       <c r="G69" t="n">
-        <v>119.84</v>
+        <v>5.84</v>
       </c>
       <c r="H69" t="n">
-        <v>1522.66</v>
+        <v>112.27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2530,29 +2530,29 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="F70" t="n">
-        <v>1068.57</v>
+        <v>94.59</v>
       </c>
       <c r="G70" t="n">
-        <v>156.66</v>
+        <v>6.89</v>
       </c>
       <c r="H70" t="n">
-        <v>1227.27</v>
+        <v>101.53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2560,29 +2560,29 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="E71" t="n">
-        <v>0.95</v>
+        <v>0.36</v>
       </c>
       <c r="F71" t="n">
-        <v>1066</v>
+        <v>94.47</v>
       </c>
       <c r="G71" t="n">
-        <v>145.21</v>
+        <v>6.37</v>
       </c>
       <c r="H71" t="n">
-        <v>1213.17</v>
+        <v>100.89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sim_large_base1</t>
+          <t>sim_base1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1.39</v>
       </c>
       <c r="E72" t="n">
-        <v>785.55</v>
+        <v>902.92</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2602,37 +2602,1117 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.47</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>sim_base1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>16</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E73" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F74" t="n">
+        <v>724.9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>123.93</v>
+      </c>
+      <c r="H74" t="n">
+        <v>851.23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2074.07</v>
+      </c>
+      <c r="G75" t="n">
+        <v>142.19</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2219.02</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F76" t="n">
+        <v>650.86</v>
+      </c>
+      <c r="G76" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>791.8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F77" t="n">
+        <v>660.14</v>
+      </c>
+      <c r="G77" t="n">
+        <v>124.21</v>
+      </c>
+      <c r="H77" t="n">
+        <v>786.8099999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>609.0700000000001</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E79" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H79" t="n">
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2501.96</v>
+      </c>
+      <c r="G80" t="n">
+        <v>200.11</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2704.36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2760.78</v>
+      </c>
+      <c r="G81" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2942.41</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2023.24</v>
+      </c>
+      <c r="G82" t="n">
+        <v>216.29</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2241.72</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2047.4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2242.86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>831.24</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E85" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="F85" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H85" t="n">
+        <v>35.84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4568.06</v>
+      </c>
+      <c r="G86" t="n">
+        <v>268.88</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4838.89</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>16</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5144.95</v>
+      </c>
+      <c r="G87" t="n">
+        <v>239.51</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5386.37</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4302.29</v>
+      </c>
+      <c r="G88" t="n">
+        <v>271.98</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4576.26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4308.59</v>
+      </c>
+      <c r="G89" t="n">
+        <v>252.43</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4562.98</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>16</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E90" t="n">
+        <v>870.13</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sim_large</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>16</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="F91" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H91" t="n">
+        <v>33.66</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>sim_large_base1</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F92" t="n">
+        <v>275.95</v>
+      </c>
+      <c r="G92" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>370.96</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>692.9299999999999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="H93" t="n">
+        <v>769.38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F94" t="n">
+        <v>257.31</v>
+      </c>
+      <c r="G94" t="n">
+        <v>107.19</v>
+      </c>
+      <c r="H94" t="n">
+        <v>366.82</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F95" t="n">
+        <v>259.25</v>
+      </c>
+      <c r="G95" t="n">
+        <v>96.22</v>
+      </c>
+      <c r="H95" t="n">
+        <v>357.79</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>602.15</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
         <v>8</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1304.57</v>
+      </c>
+      <c r="G98" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1400.76</v>
+      </c>
+      <c r="G99" t="n">
+        <v>119.84</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1522.66</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1068.57</v>
+      </c>
+      <c r="G100" t="n">
+        <v>156.66</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1227.27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G101" t="n">
+        <v>145.21</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1213.17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>785.55</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>burst</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D103" t="n">
         <v>5.31</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E103" t="n">
         <v>41.91</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F103" t="n">
         <v>25.61</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G103" t="n">
         <v>0.22</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H103" t="n">
         <v>27.49</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>16</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3199.61</v>
+      </c>
+      <c r="G104" t="n">
+        <v>217.76</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3419.22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>16</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>fin+</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3347.28</v>
+      </c>
+      <c r="G105" t="n">
+        <v>191.31</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3540.51</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>16</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>odess-</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2921.91</v>
+      </c>
+      <c r="G106" t="n">
+        <v>222.75</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3146.54</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>16</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>odess1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2913.11</v>
+      </c>
+      <c r="G107" t="n">
+        <v>199.89</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3114.86</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>16</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>dedup</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E108" t="n">
+        <v>907.37</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sim_large_base1</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>16</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>burst</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E109" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="F109" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H109" t="n">
+        <v>39.48</v>
       </c>
     </row>
   </sheetData>
